--- a/src/Tests/Templates/IncomingLetters.xlsx
+++ b/src/Tests/Templates/IncomingLetters.xlsx
@@ -227,6 +227,12 @@
   </x:si>
   <x:si>
     <x:t>730</x:t>
+  </x:si>
+  <x:si>
+    <x:t>499</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.03.2025</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -940,7 +946,7 @@
     </x:row>
     <x:row r="2" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <x:c r="A2" s="23" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B2" s="24">
         <x:v>40554</x:v>
@@ -983,7 +989,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="P2" s="29" t="s">
-        <x:v>45</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="Q2" s="29" t="s">
         <x:v>39</x:v>
